--- a/src/backend/invariants_data.xlsx
+++ b/src/backend/invariants_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramasEmGit\GraphFilterPy\src\backend\Operations_and_Invariants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramasEmGit\GraphFilterPy\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921319D-93ED-443D-B3B4-C38C1C103AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAFA2BD-76BA-4763-9B0D-587191C841E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94AB33A9-E3A4-4A09-A4BC-9CB9914B49DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -350,9 +350,6 @@
     <t>Average Degree</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Some M-eigenvalue integer</t>
   </si>
   <si>
@@ -390,6 +387,15 @@
   </si>
   <si>
     <t>The total domination number $$\\gamma_t$$ of a graph is the size of a smallest total dominating set, where a total dominating set is a set of vertices of the graph such that all vertices (including those in the set itself) have a neighbor in the set. Total dominating numbers are defined only for graphs having no isolated vertex</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>It's the number $den(G)=\frac{2m}{n(n-1)}$, where $m$ and $n$ are the number of edges and nodes, in order. The density is 0 for a graph without edges and 1 for a complete graph.</t>
+  </si>
+  <si>
+    <t>https://networkx.org/documentation/networkx-1.10/reference/generated/networkx.classes.function.density.html</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C5BF91-54AD-4625-8954-E6723CEB0E3E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -871,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -899,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -913,7 +919,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -958,9 +964,6 @@
         <v>28</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1002,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -1114,7 +1117,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>52</v>
@@ -1128,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>54</v>
@@ -1163,6 +1166,20 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1189,9 +1206,10 @@
     <hyperlink ref="C27" r:id="rId20" xr:uid="{D1323960-B5D6-4394-B413-A29F5FAD3EE6}"/>
     <hyperlink ref="C28" r:id="rId21" xr:uid="{7974ECC3-254E-4B68-A815-B5F0451FA939}"/>
     <hyperlink ref="C29" r:id="rId22" xr:uid="{723BC0B4-D861-45EA-B3D4-73B9F1E4207E}"/>
+    <hyperlink ref="C30" r:id="rId23" xr:uid="{73293C74-8334-4C92-A63F-5E40B8418CB3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1352,26 +1370,26 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
